--- a/Assets/StreamingAssets/config/数据.xlsx
+++ b/Assets/StreamingAssets/config/数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="500"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="fasdff" sheetId="2" r:id="rId1"/>
@@ -328,7 +328,7 @@
     <t>新增2</t>
   </si>
   <si>
-    <t>{[打发打发2,分分分2],[2,18]}</t>
+    <t>{[打发打发2,分分2],[2,18]}</t>
   </si>
   <si>
     <t>l_l_float</t>
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/Assets/StreamingAssets/config/数据.xlsx
+++ b/Assets/StreamingAssets/config/数据.xlsx
@@ -322,7 +322,7 @@
     <t>新增</t>
   </si>
   <si>
-    <t>{[打发打发,分分分],[2,18]}</t>
+    <t>{[打发,分分分],[2,18]}</t>
   </si>
   <si>
     <t>新增2</t>
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
